--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="153">
   <si>
     <t>Name</t>
   </si>
@@ -427,9 +427,6 @@
     <t>vStrRutaLogsNet</t>
   </si>
   <si>
-    <t>C:\Users\ROBTIPUVEN\Documents\Robtifeeds\LogsNet\LogsNet.txt</t>
-  </si>
-  <si>
     <t>Documento de control de errores .Net</t>
   </si>
   <si>
@@ -476,6 +473,18 @@
   </si>
   <si>
     <t>sjavier.sanchez@udea.edu.co</t>
+  </si>
+  <si>
+    <t>vStrRutaProcesoNet</t>
+  </si>
+  <si>
+    <t>C:\Users\ROBTIPUVEN\Documents\Robtifeeds\IntegrationByChannelAdvisor.exe</t>
+  </si>
+  <si>
+    <t>Ruta donde se aloja el ejecutable del aplicativo Net</t>
+  </si>
+  <si>
+    <t>C:\Users\ROBTIPUVEN\Documents\Robtifeeds\LogsNet\Feed.txt</t>
   </si>
 </sst>
 </file>
@@ -1118,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1254,13 +1263,24 @@
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1">
       <c r="A10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" t="s">
         <v>144</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>146</v>
+    </row>
+    <row r="13" spans="1:26" ht="15" customHeight="1">
+      <c r="A13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1">
@@ -1334,40 +1354,40 @@
         <v>132</v>
       </c>
       <c r="B20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>133</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1">
       <c r="A21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" t="s">
         <v>147</v>
-      </c>
-      <c r="B21" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1">
       <c r="A25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>138</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1">
@@ -1375,7 +1395,7 @@
         <v>89</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C26" t="s">
         <v>90</v>
@@ -1386,7 +1406,7 @@
         <v>93</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C27" t="s">
         <v>92</v>
@@ -1397,7 +1417,7 @@
         <v>94</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C28" t="s">
         <v>95</v>
@@ -1408,7 +1428,7 @@
         <v>74</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C29" t="s">
         <v>75</v>
@@ -1419,7 +1439,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Desplegables!$B$2:$D$2</xm:f>
@@ -1456,6 +1476,12 @@
           </x14:formula1>
           <xm:sqref>B25</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Desplegables!$B$8:$D$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>B13</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -1464,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1479,13 +1505,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" t="s">
         <v>142</v>
       </c>
-      <c r="C1" t="s">
-        <v>143</v>
-      </c>
       <c r="D1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1493,13 +1519,13 @@
         <v>74</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1507,13 +1533,13 @@
         <v>89</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1521,13 +1547,13 @@
         <v>93</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1535,41 +1561,52 @@
         <v>94</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" t="s">
         <v>135</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1582,12 +1619,12 @@
   <dimension ref="A1:Z987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="57.28515625" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
@@ -2739,8 +2776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2937,7 +2974,7 @@
         <v>104</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>105</v>
@@ -3925,7 +3962,7 @@
   <dimension ref="A1:Z981"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
